--- a/GUATEMALA/Indígenas/Indicadores sociodemo poblaciones y PI-CELADE/Indice de masculinidad-Indígena Guatemala.xlsx
+++ b/GUATEMALA/Indígenas/Indicadores sociodemo poblaciones y PI-CELADE/Indice de masculinidad-Indígena Guatemala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\BBDD-CENTROAMERICA\GUATEMALA\Indígenas\Indicadores sociodemo poblaciones y PI-CELADE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5012813-BC50-4431-925A-B29D2A621752}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B44364-C2F7-4161-A861-E71F379A1F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,13 +162,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,35 +539,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -581,7 +581,7 @@
     </row>
     <row r="5" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
